--- a/wsr/report.xlsx
+++ b/wsr/report.xlsx
@@ -46,15 +46,15 @@
     <t>User Support of LOGCOP-FACET</t>
   </si>
   <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>QA test of the capability assessment tool to ensure that the PACAF exercise changes will not affect PACOM</t>
+  </si>
+  <si>
     <t>QA Testing: Phone Roster Bug Fixes</t>
   </si>
   <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>QA test of the capability assessment tool to ensure that the PACAF exercise changes will not affect PACOM</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
@@ -184,7 +184,7 @@
     <t>Create Task Source Manager</t>
   </si>
   <si>
-    <t>Create Task Source Manager - Develop Design Document</t>
+    <t>Task Source Manager - Create Design Document</t>
   </si>
   <si>
     <t>Create Task Source Manager - Unit Test</t>
@@ -208,21 +208,21 @@
     <t>CBT: Archived collated briefs don't retain hidden slides</t>
   </si>
   <si>
+    <t>Fix PACFLT Unit Tests</t>
+  </si>
+  <si>
+    <t>Fix Remaining PACFLT Unit Tests</t>
+  </si>
+  <si>
+    <t>Fix Shore Station Category Unit Test</t>
+  </si>
+  <si>
+    <t>Outdated Message Traffic file in Ship Info Phase0</t>
+  </si>
+  <si>
     <t>Fix issues with eclipse fha project</t>
   </si>
   <si>
-    <t>Fix PACFLT Unit Tests</t>
-  </si>
-  <si>
-    <t>Fix Remaining PACFLT Unit Tests</t>
-  </si>
-  <si>
-    <t>Fix Shore Station Category Unit Test</t>
-  </si>
-  <si>
-    <t>Outdated Message Traffic file in Ship Info Phase0</t>
-  </si>
-  <si>
     <t>Refactor XlsxFileParser and make it easier to extend</t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>Fuel Inventory Meeting with Radke</t>
+    <t xml:space="preserve">Fuel Inventory Meeting with Radke </t>
   </si>
   <si>
     <t>Radke suggested changes</t>
@@ -368,7 +368,7 @@
   <cols>
     <col min="3" max="3" width="50.53515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.0078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.05078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.16796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9375" customWidth="true" bestFit="true"/>
   </cols>
@@ -381,7 +381,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="n" s="2">
-        <v>73.75</v>
+        <v>103.75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -396,7 +396,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="n" s="4">
-        <v>73.75</v>
+        <v>103.75</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="n" s="4">
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="n" s="2">
-        <v>141.25</v>
+        <v>457.04998779296875</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="n" s="4">
-        <v>141.25</v>
+        <v>457.04998779296875</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="n" s="4">
@@ -490,7 +490,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" t="n" s="6">
-        <v>11.033332824707031</v>
+        <v>18.0</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" t="n" s="6">
@@ -503,7 +503,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" t="n" s="6">
-        <v>44.58333206176758</v>
+        <v>161.0</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" t="n" s="6">
@@ -516,7 +516,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" t="n" s="6">
-        <v>60.08333206176758</v>
+        <v>252.5</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="n" s="6">
@@ -550,19 +550,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="n" s="2">
-        <v>79.5</v>
+        <v>7.0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="n" s="2">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
@@ -571,41 +571,41 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="n" s="4">
-        <v>76.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="n" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" outlineLevel="1" hidden="true">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" t="n" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" t="n" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>7.0</v>
+        <v>79.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -614,11 +614,11 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="n" s="4">
-        <v>7.0</v>
+        <v>76.0</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="n" s="4">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6" outlineLevel="1" hidden="true">
@@ -627,11 +627,11 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="n" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="n" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n" s="2">
-        <v>363.7333068847656</v>
+        <v>405.73333740234375</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -657,7 +657,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="n" s="4">
-        <v>165.68331909179688</v>
+        <v>207.68333435058594</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" t="n" s="4">
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n" s="2">
-        <v>310.48333740234375</v>
+        <v>316.98333740234375</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n" s="2">
-        <v>93.0</v>
+        <v>94.5</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>2</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" t="n" s="4">
-        <v>93.0</v>
+        <v>94.5</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" t="n" s="4">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n" s="2">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>2</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="n" s="4">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="n" s="4">
@@ -1033,7 +1033,7 @@
     </row>
     <row r="36" outlineLevel="1" hidden="true">
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" t="n" s="6">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n" s="2">
-        <v>56.0</v>
+        <v>67.0</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>2</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" t="n" s="4">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" t="n" s="4">
@@ -1268,7 +1268,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="51.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.6875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.0078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.16796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.296875" customWidth="true" bestFit="true"/>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>207.54998779296875</v>
+        <v>223.54998779296875</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="n" s="4">
-        <v>69.51666259765625</v>
+        <v>81.51666259765625</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="n" s="4">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n" s="2">
-        <v>16.75</v>
+        <v>31.75</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="n" s="2">
-        <v>209.5333251953125</v>
+        <v>219.0333251953125</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="n" s="4">
-        <v>171.5333251953125</v>
+        <v>181.0333251953125</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="n" s="4">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" t="n" s="6">
-        <v>6.5</v>
+        <v>7.0</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" t="n" s="6">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4" outlineLevel="1" hidden="true">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" t="n" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" t="n" s="6">
@@ -1715,28 +1715,28 @@
     </row>
     <row r="5" outlineLevel="1" hidden="true">
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" t="n" s="6">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="n" s="6">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6" outlineLevel="1" hidden="true">
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="n" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" t="n" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" outlineLevel="1" hidden="true">
@@ -1745,11 +1745,11 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" t="n" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" t="n" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8" outlineLevel="1" hidden="true">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" t="n" s="6">
-        <v>2.0</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" t="n" s="6">
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n" s="2">
-        <v>737.3999633789062</v>
+        <v>774.9166259765625</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>2</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="n" s="4">
-        <v>374.88330078125</v>
+        <v>407.89996337890625</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" t="n" s="4">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" t="n" s="4">
-        <v>93.0</v>
+        <v>97.5</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" t="n" s="4">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" t="n" s="6">
-        <v>5.0</v>
+        <v>6.5</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" t="n" s="6">
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n" s="2">
-        <v>132.5</v>
+        <v>141.5</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" t="n" s="4">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" t="n" s="4">
